--- a/db/bbdd.xlsx
+++ b/db/bbdd.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62344C49-EBC0-4E70-9F18-77ACBE7DAB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA1277-D32F-4AFA-AEBE-E22FA69B3418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="-17625" windowWidth="24600" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3 (2)" sheetId="5" r:id="rId1"/>
@@ -1162,9 +1162,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
